--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
-    <sheet name="family_members" sheetId="2" r:id="rId2"/>
-    <sheet name="source" sheetId="3" r:id="rId3"/>
+    <sheet name="source" sheetId="3" r:id="rId2"/>
+    <sheet name="layout" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="333">
   <si>
     <t>year</t>
   </si>
@@ -950,74 +950,83 @@
     <t>Prince is found dead at his Paisley Park recording studio complex in Chanhassen. He was 57.</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>occupation</t>
-  </si>
-  <si>
-    <t>relation</t>
-  </si>
-  <si>
-    <t>connections</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>prince</t>
-  </si>
-  <si>
-    <t>Prince Rogers Nelson</t>
-  </si>
-  <si>
-    <t>Rogers</t>
-  </si>
-  <si>
-    <t>Nelson</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>He was Prince.</t>
-  </si>
-  <si>
-    <t>http://striblab.github.io/startribune_dataviz/20160501-prince_stats/img/prince-icon.png</t>
-  </si>
-  <si>
     <t>Source: Billboard, Nielsen SoundScan, Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Billboard, Nielsen SoundScan, Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>A timeline of Prince's career highlights</t>
+  </si>
+  <si>
+    <t>Year of event</t>
+  </si>
+  <si>
+    <t>Date of event</t>
+  </si>
+  <si>
+    <t>Title of album or event</t>
+  </si>
+  <si>
+    <t>Track name</t>
+  </si>
+  <si>
+    <t>Type of event  (albums, tour, billboard, other, etc)</t>
+  </si>
+  <si>
+    <t>Notes about event</t>
+  </si>
+  <si>
+    <t>Average number of tickets sold, if tour</t>
+  </si>
+  <si>
+    <t>Number of tickets sold, if tour</t>
+  </si>
+  <si>
+    <t>Gross millions of dollars made</t>
+  </si>
+  <si>
+    <t>Billboard ranking</t>
+  </si>
+  <si>
+    <t>If album, what label</t>
+  </si>
+  <si>
+    <t>Average price of ticket</t>
+  </si>
+  <si>
+    <t>Copy about event for online</t>
+  </si>
+  <si>
+    <t>Critic rating for song, album or tour</t>
+  </si>
+  <si>
+    <t>Which Star Tribune critic wrote the review</t>
+  </si>
+  <si>
+    <t>Associated artwork URL</t>
+  </si>
+  <si>
+    <t>Additional story URL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1035,12 +1044,19 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1067,10 +1083,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1078,10 +1098,12 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1414,8 +1436,8 @@
   <dimension ref="A1:Q154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -9584,6 +9606,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9594,116 +9617,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1">
+      <c r="A6" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="B7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" t="s">
         <v>314</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G2" s="2">
-        <v>57</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1958</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>328</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9714,22 +9674,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2016</v>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
